--- a/src/main/webapp/assets/files/example_excel.xlsx
+++ b/src/main/webapp/assets/files/example_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project496\Excel-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Github-Project496\src\main\webapp\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6638467F-5AD1-4C97-9B1D-4F28A49C7C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB53F275-3170-4895-9F55-D7470B8FB70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8A1685B2-46A1-46FF-8306-5E8C748B0632}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9420" xr2:uid="{8A1685B2-46A1-46FF-8306-5E8C748B0632}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>อาจารย์ที่ปรึกษา</t>
   </si>
@@ -51,6 +51,69 @@
   </si>
   <si>
     <t>ชื่อ-สกุล</t>
+  </si>
+  <si>
+    <t>6504106307</t>
+  </si>
+  <si>
+    <t>นาย กิติพงษ์ สิทธิกัน</t>
+  </si>
+  <si>
+    <t>ผศ.ดร.สายัณห์ อุ่นนันกาศ</t>
+  </si>
+  <si>
+    <t>ระบบ Senior Connect</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>6504106341</t>
+  </si>
+  <si>
+    <t>นาย ฐิติกร พวงสุวรรณ</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>6504106333</t>
+  </si>
+  <si>
+    <t>นายชัชวาลย์ ถกลพัฒนกุล</t>
+  </si>
+  <si>
+    <t>ผศ.ดร.วรรณวิมล นาดี</t>
+  </si>
+  <si>
+    <t>เว็บไซต์แจ้งรายงานความเสียหายประกันภัยข้าว</t>
+  </si>
+  <si>
+    <t>6504106391</t>
+  </si>
+  <si>
+    <t>นายมณฑล อินโต๋</t>
+  </si>
+  <si>
+    <t>แอปช่วยสร้างบ้านในฝัน</t>
+  </si>
+  <si>
+    <t>6504106327</t>
+  </si>
+  <si>
+    <t>นางสาวชนากานต์ สงวนพงษ์</t>
+  </si>
+  <si>
+    <t>ระบบสืบค้นโครงงานสารสนเทศ สาขาเทคโนโลยีสารสนเทศ เวอร์ชัน 2</t>
+  </si>
+  <si>
+    <t>6504106382</t>
+  </si>
+  <si>
+    <t>นางสาวภัทรดา เยื้อนจันทึก</t>
+  </si>
+  <si>
+    <t>เว็บไซต์การส่งน้ำตามวอร์ดและแผนกต่างๆในโรงพยาบาล</t>
   </si>
 </sst>
 </file>
@@ -474,7 +537,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,46 +567,106 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
